--- a/results/gurobi_cplex_comparison/seed_40_k_5.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_5.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006</v>
+        <v>0.15</v>
       </c>
       <c r="F2">
-        <v>0.037</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.013</v>
+        <v>0.216</v>
       </c>
       <c r="F3">
-        <v>0.045</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.008999999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="F4">
-        <v>0.063</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.014</v>
+        <v>0.375</v>
       </c>
       <c r="F5">
-        <v>0.073</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.014</v>
+        <v>0.463</v>
       </c>
       <c r="F6">
-        <v>0.091</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F7">
-        <v>0.061</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.031</v>
+        <v>0.704</v>
       </c>
       <c r="F8">
-        <v>0.207</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.022</v>
+        <v>0.824</v>
       </c>
       <c r="F9">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.011</v>
+        <v>0.972</v>
       </c>
       <c r="F10">
-        <v>0.036</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.025</v>
+        <v>1.168</v>
       </c>
       <c r="F11">
-        <v>0.188</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.027</v>
+        <v>1.422</v>
       </c>
       <c r="F12">
-        <v>0.273</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.022</v>
+        <v>1.463</v>
       </c>
       <c r="F13">
-        <v>0.245</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.021</v>
+        <v>1.646</v>
       </c>
       <c r="F14">
-        <v>0.047</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.049</v>
+        <v>1.908</v>
       </c>
       <c r="F15">
-        <v>1.091</v>
+        <v>1.667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.023</v>
+        <v>2.035</v>
       </c>
       <c r="F16">
-        <v>0.049</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.027</v>
+        <v>2.281</v>
       </c>
       <c r="F17">
-        <v>0.46</v>
+        <v>1.055</v>
       </c>
     </row>
   </sheetData>
